--- a/Fashion/data/Data.xlsx
+++ b/Fashion/data/Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungnt2\Desktop\anhptqTSCSelenium06\Fashion\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSuccess" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t>Email</t>
   </si>
@@ -137,6 +142,12 @@
   </si>
   <si>
     <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>LoginPass</t>
+  </si>
+  <si>
+    <t>LoginFail</t>
   </si>
 </sst>
 </file>
@@ -208,6 +219,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -255,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,28 +513,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -530,57 +552,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
